--- a/biology/Botanique/Mister_Lincoln/Mister_Lincoln.xlsx
+++ b/biology/Botanique/Mister_Lincoln/Mister_Lincoln.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mister Lincoln est un cultivar de rosier, créé en 1964 par Swim &amp; Weeks, nommé d'après Abraham Lincoln. Il est issu du croisement de 'Chrysler Imperial' (Lammerts 1952) × 'Charles Mallerin'.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De couleur rouge, c'est un hybride de thé célèbre pour sa fragrance que l'on sent de loin. Il peut mesurer jusqu'à 1,20 m de hauteur sur 1 m de large. Ses feuilles sont d'un vert mat profond. Ses boutons sont rouge-violacé et s'ouvrent en une grande fleur double de 30 à 35 pétales.
 Il est largement commercialisé sous diverses latitudes aujourd'hui.
@@ -544,7 +558,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>All-America Rose Selections 1965</t>
         </is>
